--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="148">
   <si>
     <t>ModuleName</t>
   </si>
@@ -180,28 +183,289 @@
     <t xml:space="preserve"> ET_OOFS_Notify </t>
   </si>
   <si>
+    <t>RelatedModuleText</t>
+  </si>
+  <si>
+    <t>SequenceNo</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>http://www.google.com/</t>
+  </si>
+  <si>
+    <t>SummaryAdd@gmail.com</t>
+  </si>
+  <si>
+    <t>SummaryAddText</t>
+  </si>
+  <si>
+    <t>three,four</t>
+  </si>
+  <si>
+    <t>SummaryAddTextArea</t>
+  </si>
+  <si>
+    <t>SummaryAddName</t>
+  </si>
+  <si>
+    <t>http://www.mvnrepository.com/</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>DuplicateAdd@gmail.com</t>
+  </si>
+  <si>
+    <t>DuplicateAddText</t>
+  </si>
+  <si>
+    <t>four,five</t>
+  </si>
+  <si>
+    <t>DuplicateAddTextArea</t>
+  </si>
+  <si>
+    <t>DuplicateAddName</t>
+  </si>
+  <si>
+    <t>30-04-2024</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>30-04-2024 10:51:51 AM</t>
+  </si>
+  <si>
+    <t>ET088</t>
+  </si>
+  <si>
+    <t>30-04-2024 11:01:27 AM</t>
+  </si>
+  <si>
+    <t>ET089</t>
+  </si>
+  <si>
+    <t>ET091</t>
+  </si>
+  <si>
+    <t>EditSave@gmail.com</t>
+  </si>
+  <si>
+    <t>EditSaveAddText</t>
+  </si>
+  <si>
+    <t>EditSaveTextArea</t>
+  </si>
+  <si>
+    <t>EditSaveName</t>
+  </si>
+  <si>
+    <t>ET092</t>
+  </si>
+  <si>
+    <t>02-05-2024</t>
+  </si>
+  <si>
+    <t>02-05-2024 11:01:27 AM</t>
+  </si>
+  <si>
+    <t>ET094</t>
+  </si>
+  <si>
+    <t>ET095</t>
+  </si>
+  <si>
+    <t>ET096</t>
+  </si>
+  <si>
+    <t>ET097</t>
+  </si>
+  <si>
+    <t>ET098</t>
+  </si>
+  <si>
+    <t>ET099</t>
+  </si>
+  <si>
+    <t>02-05-2024 03:40:00 PM</t>
+  </si>
+  <si>
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>RelatedModuleText</t>
-  </si>
-  <si>
-    <t>27-04-2024</t>
-  </si>
-  <si>
-    <t>SequenceNo</t>
-  </si>
-  <si>
-    <t>27-04-2024 03:09:14 PM</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ET019</t>
-  </si>
-  <si>
-    <t>http://www.google.com/</t>
+    <t>ET100</t>
+  </si>
+  <si>
+    <t>02-05-2024 03:48:45 PM</t>
+  </si>
+  <si>
+    <t>ET101</t>
+  </si>
+  <si>
+    <t>02-05-2024 04:21:54 PM</t>
+  </si>
+  <si>
+    <t>ET102</t>
+  </si>
+  <si>
+    <t>02-05-2024 04:30:39 PM</t>
+  </si>
+  <si>
+    <t>ET103</t>
+  </si>
+  <si>
+    <t>ET104</t>
+  </si>
+  <si>
+    <t>02-05-2024 05:29:57 PM</t>
+  </si>
+  <si>
+    <t>ET105</t>
+  </si>
+  <si>
+    <t>02-05-2024 05:38:43 PM</t>
+  </si>
+  <si>
+    <t>ET106</t>
+  </si>
+  <si>
+    <t>ET107</t>
+  </si>
+  <si>
+    <t>02-05-2024 06:13:53 PM</t>
+  </si>
+  <si>
+    <t>ET108</t>
+  </si>
+  <si>
+    <t>02-05-2024 06:22:43 PM</t>
+  </si>
+  <si>
+    <t>ET109</t>
+  </si>
+  <si>
+    <t>ET110</t>
+  </si>
+  <si>
+    <t>03-05-2024</t>
+  </si>
+  <si>
+    <t>03-05-2024 11:10:33 AM</t>
+  </si>
+  <si>
+    <t>ET113</t>
+  </si>
+  <si>
+    <t>03-05-2024 11:20:55 AM</t>
+  </si>
+  <si>
+    <t>ET114</t>
+  </si>
+  <si>
+    <t>03-05-2024 06:02:20 PM</t>
+  </si>
+  <si>
+    <t>ET138</t>
+  </si>
+  <si>
+    <t>03-05-2024 06:12:01 PM</t>
+  </si>
+  <si>
+    <t>03-05-2024 06:20:09 PM</t>
+  </si>
+  <si>
+    <t>ET140</t>
+  </si>
+  <si>
+    <t>03-05-2024 06:29:49 PM</t>
+  </si>
+  <si>
+    <t>ET141</t>
+  </si>
+  <si>
+    <t>04-05-2024</t>
+  </si>
+  <si>
+    <t>04-05-2024 11:17:09 AM</t>
+  </si>
+  <si>
+    <t>ET142</t>
+  </si>
+  <si>
+    <t>04-05-2024 11:26:49 AM</t>
+  </si>
+  <si>
+    <t>ET143</t>
+  </si>
+  <si>
+    <t>04-05-2024 11:41:01 AM</t>
+  </si>
+  <si>
+    <t>ET144</t>
+  </si>
+  <si>
+    <t>04-05-2024 11:50:43 AM</t>
+  </si>
+  <si>
+    <t>ET145</t>
+  </si>
+  <si>
+    <t>04-05-2024 12:10:22 PM</t>
+  </si>
+  <si>
+    <t>ET146</t>
+  </si>
+  <si>
+    <t>04-05-2024 12:20:06 PM</t>
+  </si>
+  <si>
+    <t>ET147</t>
+  </si>
+  <si>
+    <t>04-05-2024 12:40:31 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 12:48:59 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 01:04:00 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 01:40:11 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 01:49:53 PM</t>
+  </si>
+  <si>
+    <t>ET153</t>
+  </si>
+  <si>
+    <t>04-05-2024 02:46:34 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 02:57:16 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 03:13:06 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 03:20:17 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 03:33:53 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 03:52:50 PM</t>
+  </si>
+  <si>
+    <t>04-05-2024 03:58:15 PM</t>
+  </si>
+  <si>
+    <t>ET161</t>
   </si>
 </sst>
 </file>
@@ -547,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection sqref="A1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +943,7 @@
         <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
@@ -713,8 +977,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>55</v>
+      <c r="K2" t="s" s="1">
+        <v>121</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -722,11 +986,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>53</v>
+      <c r="N2" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>90</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -741,7 +1005,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>36</v>
@@ -753,7 +1017,7 @@
         <v>38</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>42</v>
@@ -777,10 +1041,695 @@
         <v>52</v>
       </c>
       <c r="AG2" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="AK2" t="s" s="1">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="T2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.85546875"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.28515625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.5703125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.85546875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.85546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AK2" t="s" s="1">
-        <v>58</v>
+      <c r="I2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2323232323</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1199223344</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="T2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.28515625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2323232323</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1199223344</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="T2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.42578125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2323232323</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1199223344</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="167">
   <si>
     <t>ModuleName</t>
   </si>
@@ -466,6 +466,63 @@
   </si>
   <si>
     <t>ET161</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>08-07-2024</t>
+  </si>
+  <si>
+    <t>11-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2140</t>
+  </si>
+  <si>
+    <t>ET2141</t>
+  </si>
+  <si>
+    <t>ET2142</t>
+  </si>
+  <si>
+    <t>ET2143</t>
+  </si>
+  <si>
+    <t>ET2144</t>
+  </si>
+  <si>
+    <t>ET2145</t>
+  </si>
+  <si>
+    <t>ET2146</t>
+  </si>
+  <si>
+    <t>ET2147</t>
+  </si>
+  <si>
+    <t>ET2148</t>
+  </si>
+  <si>
+    <t>ET2149</t>
+  </si>
+  <si>
+    <t>ET2150</t>
+  </si>
+  <si>
+    <t>ET2151</t>
+  </si>
+  <si>
+    <t>ET2152</t>
+  </si>
+  <si>
+    <t>ET2153</t>
+  </si>
+  <si>
+    <t>ET2154</t>
+  </si>
+  <si>
+    <t>ET2155</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1035,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -987,7 +1044,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="O2" t="s" s="1">
         <v>90</v>
@@ -1041,10 +1098,10 @@
         <v>52</v>
       </c>
       <c r="AG2" t="s" s="1">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="AK2" t="s" s="1">
-        <v>55</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1275,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1227,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>90</v>
@@ -1280,7 +1337,7 @@
         <v>52</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>133</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1500,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1452,7 +1509,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>90</v>
@@ -1505,7 +1562,7 @@
         <v>52</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1724,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1676,7 +1733,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>90</v>
@@ -1729,7 +1786,7 @@
         <v>52</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
   <si>
     <t>ModuleName</t>
   </si>
@@ -177,9 +177,6 @@
     <t>NotifyTemplate_Msg</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_CTAfterMinutes</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ET_OOFS_Notify </t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>SequenceNo</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>http://www.google.com/</t>
   </si>
   <si>
@@ -231,27 +225,6 @@
     <t>DuplicateAddName</t>
   </si>
   <si>
-    <t>30-04-2024</t>
-  </si>
-  <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>30-04-2024 10:51:51 AM</t>
-  </si>
-  <si>
-    <t>ET088</t>
-  </si>
-  <si>
-    <t>30-04-2024 11:01:27 AM</t>
-  </si>
-  <si>
-    <t>ET089</t>
-  </si>
-  <si>
-    <t>ET091</t>
-  </si>
-  <si>
     <t>EditSave@gmail.com</t>
   </si>
   <si>
@@ -264,272 +237,34 @@
     <t>EditSaveName</t>
   </si>
   <si>
-    <t>ET092</t>
-  </si>
-  <si>
-    <t>02-05-2024</t>
-  </si>
-  <si>
-    <t>02-05-2024 11:01:27 AM</t>
-  </si>
-  <si>
-    <t>ET094</t>
-  </si>
-  <si>
-    <t>ET095</t>
-  </si>
-  <si>
-    <t>ET096</t>
-  </si>
-  <si>
-    <t>ET097</t>
-  </si>
-  <si>
-    <t>ET098</t>
-  </si>
-  <si>
-    <t>ET099</t>
-  </si>
-  <si>
-    <t>02-05-2024 03:40:00 PM</t>
-  </si>
-  <si>
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>ET100</t>
-  </si>
-  <si>
-    <t>02-05-2024 03:48:45 PM</t>
-  </si>
-  <si>
-    <t>ET101</t>
-  </si>
-  <si>
-    <t>02-05-2024 04:21:54 PM</t>
-  </si>
-  <si>
-    <t>ET102</t>
-  </si>
-  <si>
-    <t>02-05-2024 04:30:39 PM</t>
-  </si>
-  <si>
-    <t>ET103</t>
-  </si>
-  <si>
-    <t>ET104</t>
-  </si>
-  <si>
-    <t>02-05-2024 05:29:57 PM</t>
-  </si>
-  <si>
-    <t>ET105</t>
-  </si>
-  <si>
-    <t>02-05-2024 05:38:43 PM</t>
-  </si>
-  <si>
-    <t>ET106</t>
-  </si>
-  <si>
-    <t>ET107</t>
-  </si>
-  <si>
-    <t>02-05-2024 06:13:53 PM</t>
-  </si>
-  <si>
-    <t>ET108</t>
-  </si>
-  <si>
-    <t>02-05-2024 06:22:43 PM</t>
-  </si>
-  <si>
-    <t>ET109</t>
-  </si>
-  <si>
-    <t>ET110</t>
-  </si>
-  <si>
-    <t>03-05-2024</t>
-  </si>
-  <si>
-    <t>03-05-2024 11:10:33 AM</t>
-  </si>
-  <si>
-    <t>ET113</t>
-  </si>
-  <si>
-    <t>03-05-2024 11:20:55 AM</t>
-  </si>
-  <si>
-    <t>ET114</t>
-  </si>
-  <si>
-    <t>03-05-2024 06:02:20 PM</t>
-  </si>
-  <si>
-    <t>ET138</t>
-  </si>
-  <si>
-    <t>03-05-2024 06:12:01 PM</t>
-  </si>
-  <si>
-    <t>03-05-2024 06:20:09 PM</t>
-  </si>
-  <si>
-    <t>ET140</t>
-  </si>
-  <si>
-    <t>03-05-2024 06:29:49 PM</t>
-  </si>
-  <si>
-    <t>ET141</t>
-  </si>
-  <si>
-    <t>04-05-2024</t>
-  </si>
-  <si>
-    <t>04-05-2024 11:17:09 AM</t>
-  </si>
-  <si>
-    <t>ET142</t>
-  </si>
-  <si>
-    <t>04-05-2024 11:26:49 AM</t>
-  </si>
-  <si>
-    <t>ET143</t>
-  </si>
-  <si>
-    <t>04-05-2024 11:41:01 AM</t>
-  </si>
-  <si>
-    <t>ET144</t>
-  </si>
-  <si>
-    <t>04-05-2024 11:50:43 AM</t>
-  </si>
-  <si>
-    <t>ET145</t>
-  </si>
-  <si>
-    <t>04-05-2024 12:10:22 PM</t>
-  </si>
-  <si>
-    <t>ET146</t>
-  </si>
-  <si>
-    <t>04-05-2024 12:20:06 PM</t>
-  </si>
-  <si>
-    <t>ET147</t>
-  </si>
-  <si>
-    <t>04-05-2024 12:40:31 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 12:48:59 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 01:04:00 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 01:40:11 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 01:49:53 PM</t>
-  </si>
-  <si>
-    <t>ET153</t>
-  </si>
-  <si>
-    <t>04-05-2024 02:46:34 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 02:57:16 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 03:13:06 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 03:20:17 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 03:33:53 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 03:52:50 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024 03:58:15 PM</t>
-  </si>
-  <si>
-    <t>ET161</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>08-07-2024</t>
-  </si>
-  <si>
-    <t>11-07-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>ET2140</t>
-  </si>
-  <si>
-    <t>ET2141</t>
-  </si>
-  <si>
-    <t>ET2142</t>
-  </si>
-  <si>
-    <t>ET2143</t>
-  </si>
-  <si>
-    <t>ET2144</t>
-  </si>
-  <si>
-    <t>ET2145</t>
-  </si>
-  <si>
-    <t>ET2146</t>
-  </si>
-  <si>
-    <t>ET2147</t>
-  </si>
-  <si>
-    <t>ET2148</t>
-  </si>
-  <si>
-    <t>ET2149</t>
-  </si>
-  <si>
-    <t>ET2150</t>
-  </si>
-  <si>
-    <t>ET2151</t>
-  </si>
-  <si>
-    <t>ET2152</t>
-  </si>
-  <si>
-    <t>ET2153</t>
-  </si>
-  <si>
-    <t>ET2154</t>
-  </si>
-  <si>
-    <t>ET2155</t>
+    <t>15-07-2024</t>
+  </si>
+  <si>
+    <t>18-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2181</t>
+  </si>
+  <si>
+    <t>ET2182</t>
+  </si>
+  <si>
+    <t>ET2183</t>
+  </si>
+  <si>
+    <t>ET_CTAfterMinutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,41 +603,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection sqref="A1:AG2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.5703125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.5703125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.140625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.85546875"/>
-    <col min="10" max="17" style="1" width="9.140625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="19" max="19" style="1" width="9.140625"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
-    <col min="22" max="23" style="1" width="9.140625"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.85546875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.28515625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.5703125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.85546875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.85546875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.85546875"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.28515625"/>
-    <col min="34" max="16384" style="1" width="9.140625"/>
+    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="9.1796875" style="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="1"/>
+    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,10 +735,10 @@
         <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1034,8 +769,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>149</v>
+      <c r="K2" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1043,11 +778,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>150</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>90</v>
+      <c r="N2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1062,7 +797,7 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>36</v>
@@ -1074,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>42</v>
@@ -1083,7 +818,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>46</v>
@@ -1095,13 +830,13 @@
         <v>49</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" t="s" s="1">
-        <v>164</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>148</v>
+        <v>51</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1117,32 +852,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7109375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.42578125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.85546875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.28515625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.5703125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.85546875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.85546875"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,10 +975,10 @@
         <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1260,22 +995,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>149</v>
+      <c r="K2" t="s">
+        <v>73</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1283,17 +1018,17 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>90</v>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1302,10 +1037,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>37</v>
@@ -1314,7 +1049,7 @@
         <v>38</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>42</v>
@@ -1323,7 +1058,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1334,10 +1069,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>165</v>
+        <v>51</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1353,21 +1088,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.28515625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,10 +1201,10 @@
         <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1485,22 +1221,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>149</v>
+      <c r="K2" t="s">
+        <v>73</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1508,17 +1244,17 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>90</v>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1527,10 +1263,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>37</v>
@@ -1539,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>42</v>
@@ -1548,7 +1284,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1559,10 +1295,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>166</v>
+        <v>51</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1578,20 +1314,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.42578125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.140625"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,10 +1425,10 @@
         <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1709,22 +1445,22 @@
         <v>1234567890</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>149</v>
+      <c r="K2" t="s">
+        <v>73</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1732,17 +1468,17 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>90</v>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1">
         <v>2323232323</v>
@@ -1751,10 +1487,10 @@
         <v>1000</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>37</v>
@@ -1763,7 +1499,7 @@
         <v>38</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>42</v>
@@ -1772,7 +1508,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1783,10 +1519,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>166</v>
+        <v>51</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="85">
   <si>
     <t>ModuleName</t>
   </si>
@@ -259,12 +259,31 @@
   </si>
   <si>
     <t>ET_CTAfterMinutes</t>
+  </si>
+  <si>
+    <t>31-07-2024</t>
+  </si>
+  <si>
+    <t>31-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>ET2885</t>
+  </si>
+  <si>
+    <t>ET2886</t>
+  </si>
+  <si>
+    <t>ET2887</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,32 +628,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="17" style="1" width="9.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -769,8 +788,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>73</v>
+      <c r="K2" t="s" s="1">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -778,11 +797,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>71</v>
+      <c r="N2" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>81</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -832,10 +851,10 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AG2" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s" s="1">
         <v>72</v>
       </c>
     </row>
@@ -858,23 +877,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1009,8 +1028,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>73</v>
+      <c r="K2" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1018,10 +1037,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1071,8 +1090,8 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
-        <v>76</v>
+      <c r="AG2" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1094,13 +1113,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="31.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1235,8 +1254,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>73</v>
+      <c r="K2" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1244,10 +1263,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1297,8 +1316,8 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
-        <v>77</v>
+      <c r="AG2" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1320,11 +1339,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1459,8 +1478,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>73</v>
+      <c r="K2" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1468,10 +1487,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1521,8 +1540,8 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s">
-        <v>77</v>
+      <c r="AG2" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="87">
   <si>
     <t>ModuleName</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>ET2887</t>
+  </si>
+  <si>
+    <t>12-01-2025</t>
+  </si>
+  <si>
+    <t>15-01-2025 05:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -789,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -798,10 +804,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -851,9 +857,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s" s="1">
-        <v>82</v>
-      </c>
+      <c r="AG2" s="1"/>
       <c r="AK2" t="s" s="1">
         <v>72</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1038,7 +1042,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>71</v>
@@ -1090,9 +1094,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>83</v>
-      </c>
+      <c r="AG2" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1255,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1264,7 +1266,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>71</v>
@@ -1316,9 +1318,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>84</v>
-      </c>
+      <c r="AG2" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1479,7 +1479,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>71</v>
@@ -1540,9 +1540,7 @@
       <c r="AF2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>84</v>
-      </c>
+      <c r="AG2" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterMinutes_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="89">
   <si>
     <t>ModuleName</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>15-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>16-01-2025</t>
+  </si>
+  <si>
+    <t>19-01-2025 05:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -804,7 +810,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s" s="1">
         <v>71</v>
@@ -1033,7 +1039,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1042,7 +1048,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>71</v>
@@ -1257,7 +1263,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1266,7 +1272,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>71</v>
@@ -1479,7 +1485,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1488,7 +1494,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>71</v>
